--- a/Summer_practice/files/Заявки.xlsx
+++ b/Summer_practice/files/Заявки.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,58 +473,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Золотухина Полина Викторовна</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>+79963833254</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>КУБГУ</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Математика и компьютерные науки</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Математика и компьютерные науки</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>ВМИ</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>31/1</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>нет</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>нет</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Summer_practice/files/Заявки.xlsx
+++ b/Summer_practice/files/Заявки.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,58 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Лл Л Л</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>+79999999999</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>К</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>К</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>К</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>К</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>23/3</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
